--- a/docs/omh-speed.xlsx
+++ b/docs/omh-speed.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="76">
   <si>
     <t>Path</t>
   </si>
@@ -215,7 +215,7 @@
 </t>
   </si>
   <si>
-    <t>TODO</t>
+    <t>todo</t>
   </si>
   <si>
     <t>required</t>
@@ -233,8 +233,8 @@
     <t>OmhSpeed.effectiveTimeFrame</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime|Period {[]} {[]}
-</t>
+    <t>dateTime {[]} {[]}
+Period {[]} {[]}</t>
   </si>
   <si>
     <t>properties.effective_time_frame</t>
@@ -1103,9 +1103,11 @@
         <v>38</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="X7" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="X7" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="Y7" t="s" s="2">
         <v>38</v>
       </c>

--- a/docs/omh-speed.xlsx
+++ b/docs/omh-speed.xlsx
@@ -408,9 +408,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="28.6484375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.91015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="12.19921875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
@@ -418,7 +418,7 @@
     <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="45.9765625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="43.28515625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -432,10 +432,10 @@
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="19.796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="62.6484375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="58.55078125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="43.0625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="10.21484375" customWidth="true" bestFit="true" hidden="true"/>
@@ -444,7 +444,7 @@
     <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="33.24609375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="65.8359375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="62.2109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/omh-speed.xlsx
+++ b/docs/omh-speed.xlsx
@@ -152,7 +152,7 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -172,7 +172,7 @@
     <t>*</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
@@ -198,7 +198,7 @@
     <t>OmhSpeed.omhHeader</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {[CanonicalType[http://www.fhir.org/guides/mfhir/StructureDefinition/omh-header]]} {[]}
+    <t xml:space="preserve">BackboneElement {http://www.fhir.org/guides/mfhir/StructureDefinition/omh-header}
 </t>
   </si>
   <si>
@@ -211,7 +211,7 @@
     <t>OmhSpeed.speed</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {[]} {[]}
+    <t xml:space="preserve">Quantity
 </t>
   </si>
   <si>
@@ -233,8 +233,8 @@
     <t>OmhSpeed.effectiveTimeFrame</t>
   </si>
   <si>
-    <t>dateTime {[]} {[]}
-Period {[]} {[]}</t>
+    <t>dateTime
+Period</t>
   </si>
   <si>
     <t>properties.effective_time_frame</t>
@@ -243,7 +243,7 @@
     <t>OmhSpeed.descriptiveStatistic</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -303,67 +303,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL8"/>
+  <dimension ref="A1:AK8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
